--- a/Post/diary/20230915.xlsx
+++ b/Post/diary/20230915.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CFAA78-463A-1B47-9E97-8C6993609B0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5666CBA6-0F34-584B-A374-99157F6BD99E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="1840" windowWidth="35580" windowHeight="18620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4280" yWindow="5240" windowWidth="35580" windowHeight="18620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t xml:space="preserve">    /**
      * 首尾相连，list[0]、list[-1]（最后一个元素）的值相等，两者是同一个元素，但是存了两份
@@ -45,6 +45,15 @@
   </si>
   <si>
     <t>wrap around for ring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTSAM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/borglab/gtsam
+基于GTSAM因子图优化库，搭建HDair编译引擎demo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -88,13 +97,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -376,25 +388,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="119.33203125" customWidth="1"/>
+    <col min="2" max="2" width="47.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="160" customHeight="1">
+    <row r="1" spans="1:2" ht="160" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" ht="406" customHeight="1">
+    <row r="2" spans="1:2" ht="406" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
